--- a/Team-Data/2011-12/4-9-2011-12.xlsx
+++ b/Team-Data/2011-12/4-9-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -783,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -938,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -965,19 +1032,19 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
@@ -989,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -998,7 +1065,7 @@
         <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>0.127</v>
+        <v>0.13</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1057,7 +1124,7 @@
         <v>4.1</v>
       </c>
       <c r="M4" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N4" t="n">
         <v>0.301</v>
@@ -1069,10 +1136,10 @@
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>28.9</v>
@@ -1081,7 +1148,7 @@
         <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
@@ -1090,13 +1157,13 @@
         <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" t="n">
         <v>20.2</v>
@@ -1105,10 +1172,10 @@
         <v>88.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.1</v>
+        <v>-12.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1159,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>13</v>
@@ -1168,13 +1235,13 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,10 +1372,10 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
@@ -1326,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
@@ -1490,7 +1557,7 @@
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1502,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1517,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1526,13 +1593,13 @@
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1666,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1687,19 +1754,19 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
         <v>14</v>
@@ -1708,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.544</v>
+        <v>0.536</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="O8" t="n">
         <v>20.2</v>
@@ -1797,19 +1864,19 @@
         <v>27.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T8" t="n">
-        <v>43.4</v>
+        <v>43.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
@@ -1818,43 +1885,43 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
         <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>0.368</v>
+        <v>0.375</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J9" t="n">
         <v>78.90000000000001</v>
@@ -1967,31 +2034,31 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N9" t="n">
         <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P9" t="n">
         <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T9" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V9" t="n">
         <v>15.9</v>
@@ -2006,19 +2073,19 @@
         <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.8</v>
+        <v>-5.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2051,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>14</v>
@@ -2069,16 +2136,16 @@
         <v>27</v>
       </c>
       <c r="AU9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J10" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
         <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O10" t="n">
         <v>14.9</v>
       </c>
       <c r="P10" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R10" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T10" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="U10" t="n">
         <v>22.3</v>
@@ -2182,25 +2249,25 @@
         <v>8.1</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2215,13 +2282,13 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2230,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2263,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O11" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P11" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="Q11" t="n">
         <v>0.787</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
         <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
         <v>21.2</v>
@@ -2361,10 +2428,10 @@
         <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y11" t="n">
         <v>5.2</v>
@@ -2376,16 +2443,16 @@
         <v>18.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
         <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2412,10 +2479,10 @@
         <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2442,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,10 +2571,10 @@
         <v>35.3</v>
       </c>
       <c r="J12" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>5.7</v>
@@ -2516,55 +2583,55 @@
         <v>15.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O12" t="n">
         <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
         <v>0.779</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
         <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="V12" t="n">
         <v>14.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,13 +2643,13 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2606,13 +2673,13 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
         <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596</v>
+        <v>0.607</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
         <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
         <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0.681</v>
@@ -2713,19 +2780,19 @@
         <v>12.2</v>
       </c>
       <c r="S13" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T13" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
         <v>13.4</v>
       </c>
       <c r="W13" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X13" t="n">
         <v>4.7</v>
@@ -2740,22 +2807,22 @@
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2776,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>19</v>
@@ -2788,10 +2855,10 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="n">
         <v>18</v>
@@ -2803,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
@@ -2815,13 +2882,13 @@
         <v>24</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H14" t="n">
         <v>48.5</v>
       </c>
       <c r="I14" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J14" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.457</v>
@@ -2877,10 +2944,10 @@
         <v>5.4</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.318</v>
+        <v>0.316</v>
       </c>
       <c r="O14" t="n">
         <v>18.3</v>
@@ -2889,7 +2956,7 @@
         <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R14" t="n">
         <v>11.9</v>
@@ -2904,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
         <v>5.8</v>
@@ -2916,7 +2983,7 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="AA14" t="n">
         <v>20.3</v>
@@ -2928,7 +2995,7 @@
         <v>1.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>12</v>
@@ -2994,13 +3061,13 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA14" t="n">
         <v>11</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
         <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,10 +3117,10 @@
         <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L15" t="n">
         <v>4.1</v>
@@ -3080,16 +3147,16 @@
         <v>29.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U15" t="n">
         <v>19.7</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X15" t="n">
         <v>5.2</v>
@@ -3107,16 +3174,16 @@
         <v>95</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -3128,10 +3195,10 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3152,16 +3219,16 @@
         <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
@@ -3173,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
         <v>18</v>
@@ -3185,7 +3252,7 @@
         <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -3292,22 +3359,22 @@
         <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3328,10 +3395,10 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3352,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.491</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,7 +3481,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.443</v>
@@ -3426,31 +3493,31 @@
         <v>19.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U17" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W17" t="n">
         <v>8.4</v>
@@ -3468,19 +3535,19 @@
         <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
         <v>14</v>
@@ -3513,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR17" t="n">
         <v>5</v>
@@ -3525,22 +3592,22 @@
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3549,7 +3616,7 @@
         <v>6</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.431</v>
+        <v>0.439</v>
       </c>
       <c r="H18" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J18" t="n">
         <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>7.3</v>
@@ -3608,28 +3675,28 @@
         <v>21.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P18" t="n">
         <v>25.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
         <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T18" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
@@ -3638,7 +3705,7 @@
         <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
@@ -3647,16 +3714,16 @@
         <v>18.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3695,10 +3762,10 @@
         <v>6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
@@ -3716,7 +3783,7 @@
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3923,7 @@
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3877,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>8</v>
@@ -3898,7 +3965,7 @@
         <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="n">
-        <v>0.263</v>
+        <v>0.268</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3966,22 +4033,22 @@
         <v>0.449</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.341</v>
+        <v>0.335</v>
       </c>
       <c r="O20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
@@ -3990,13 +4057,13 @@
         <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U20" t="n">
         <v>20.8</v>
       </c>
       <c r="V20" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
@@ -4011,16 +4078,16 @@
         <v>20.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
         <v>89.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.7</v>
+        <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,13 +4099,13 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4050,22 +4117,22 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS20" t="n">
         <v>19</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,13 +4141,13 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4089,7 +4156,7 @@
         <v>20</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4226,7 +4293,7 @@
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4253,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.737</v>
+        <v>0.732</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.475</v>
@@ -4345,10 +4412,10 @@
         <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.801</v>
+        <v>0.798</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
         <v>32.5</v>
@@ -4363,7 +4430,7 @@
         <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>8</v>
@@ -4372,31 +4439,31 @@
         <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J23" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
         <v>26.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.382</v>
+        <v>0.379</v>
       </c>
       <c r="O23" t="n">
         <v>15.5</v>
@@ -4527,7 +4594,7 @@
         <v>23.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.654</v>
+        <v>0.651</v>
       </c>
       <c r="R23" t="n">
         <v>11</v>
@@ -4539,16 +4606,16 @@
         <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
         <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>4.1</v>
@@ -4557,28 +4624,28 @@
         <v>17.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4623,10 +4690,10 @@
         <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>1</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
@@ -4772,13 +4839,13 @@
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4808,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
         <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.526</v>
+        <v>0.518</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J25" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
@@ -4888,31 +4955,31 @@
         <v>16.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V25" t="n">
         <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
@@ -4924,13 +4991,13 @@
         <v>19.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4945,13 +5012,13 @@
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4969,10 +5036,10 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
@@ -4981,13 +5048,13 @@
         <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
         <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.466</v>
+        <v>0.474</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.445</v>
       </c>
       <c r="L26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M26" t="n">
         <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O26" t="n">
         <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
         <v>11</v>
@@ -5085,7 +5152,7 @@
         <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
         <v>14.1</v>
@@ -5106,13 +5173,13 @@
         <v>20</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5133,7 +5200,7 @@
         <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5148,16 +5215,16 @@
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5172,13 +5239,13 @@
         <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5369,7 +5436,7 @@
         <v>9</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.727</v>
+        <v>0.741</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,10 +5483,10 @@
         <v>39.1</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5428,13 +5495,13 @@
         <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
         <v>0.736</v>
@@ -5443,58 +5510,58 @@
         <v>10.4</v>
       </c>
       <c r="S28" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
         <v>13.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="n">
         <v>2</v>
       </c>
-      <c r="AG28" t="n">
-        <v>3</v>
-      </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
@@ -5506,28 +5573,28 @@
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
         <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5539,10 +5606,10 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="n">
-        <v>0.345</v>
+        <v>0.351</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,19 +5665,19 @@
         <v>34.6</v>
       </c>
       <c r="J29" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.339</v>
+        <v>0.335</v>
       </c>
       <c r="O29" t="n">
         <v>16.7</v>
@@ -5619,7 +5686,7 @@
         <v>21.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
@@ -5631,7 +5698,7 @@
         <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
         <v>15.1</v>
@@ -5649,37 +5716,37 @@
         <v>23.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5691,7 +5758,7 @@
         <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
         <v>17</v>
@@ -5715,7 +5782,7 @@
         <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
         <v>17</v>
@@ -5730,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
         <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.517</v>
+        <v>0.509</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J30" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.455</v>
@@ -5792,13 +5859,13 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="O30" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P30" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="n">
         <v>0.75</v>
@@ -5807,40 +5874,40 @@
         <v>13.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T30" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W30" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5855,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="AI30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ30" t="n">
         <v>3</v>
@@ -5876,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
         <v>44</v>
       </c>
       <c r="G31" t="n">
-        <v>0.228</v>
+        <v>0.214</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
         <v>82.8</v>
@@ -5968,46 +6035,46 @@
         <v>0.438</v>
       </c>
       <c r="L31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
         <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.728</v>
+        <v>0.726</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U31" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z31" t="n">
         <v>21.5</v>
@@ -6016,13 +6083,13 @@
         <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.4</v>
+        <v>-7</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,13 +6107,13 @@
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>21</v>
@@ -6055,10 +6122,10 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP31" t="n">
         <v>20</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6067,7 +6134,7 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6076,7 +6143,7 @@
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-9-2011-12</t>
+          <t>2012-04-09</t>
         </is>
       </c>
     </row>
